--- a/Api/reports/data.xlsx
+++ b/Api/reports/data.xlsx
@@ -14,21 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182" count="182">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188" count="188">
   <x:si>
     <x:t>_id</x:t>
   </x:si>
   <x:si>
+    <x:t>timeStamp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>incomingDate</x:t>
+  </x:si>
+  <x:si>
     <x:t>mineralId</x:t>
   </x:si>
   <x:si>
     <x:t>mineralName</x:t>
   </x:si>
   <x:si>
-    <x:t>gradeName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantityDispatched</x:t>
+    <x:t>supplier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rockType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>typeQuantity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>truckNumber</x:t>
   </x:si>
   <x:si>
     <x:t>remarks</x:t>
@@ -37,34 +49,127 @@
     <x:t>__v</x:t>
   </x:si>
   <x:si>
-    <x:t>615006a972abdf05fa6404e3</x:t>
+    <x:t>614c7c3faf6a4efb2eee58f5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-23T13:05:02.902Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Sep 23 2021 18:35:02 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614c7c7efe14179105dac08f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-23T13:09:11.673Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614ca21e6caa22076e5d8108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-23T15:45:36.885Z</x:t>
   </x:si>
   <x:si>
     <x:t>614c7537e1559d2191d55c1c</x:t>
   </x:si>
   <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>g2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61500729b979244993c1c993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6150074cb979244993c1c9a1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6150077db979244993c1c9af</x:t>
-  </x:si>
-  <x:si>
-    <x:t>g1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6150c330292ecfa44a1f8193</x:t>
+    <x:t>chacha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lump</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614ca47c64fdcef7bcc6d244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-23T15:59:48.577Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614ca4ee4b84163c0ac55796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-23T16:01:40.441Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614ca7041be21989dfa24231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-23T16:10:37.557Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614cbd591be21989dfa2423f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614cbf10402511d105246af1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-23T17:52:58.775Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614cef3c56debf6152a25e41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-23T21:17:28.921Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614cef8e56debf6152a25e4f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chacha1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gitti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614ffbfb139da44186b22ff1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T04:49:02.575Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614ffdb6139f27a9e7acc1cc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T04:55:19.620Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504032f498e650e16d4442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T09:40:49.547Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504033f498e650e16d4451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504033f498e650e16d444f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504032f498e650e16d4444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504063f498e650e16d4459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504063f498e650e16d4457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504064f498e650e16d4465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504064f498e650e16d4467</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615040a5fa81327c092eb050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T09:42:44.251Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Sep 02 2021 00:00:00 GMT+0530 (India Standard Time)</x:t>
   </x:si>
   <x:si>
     <x:t>615026ae6835115ff777a4fe</x:t>
@@ -73,58 +178,406 @@
     <x:t>Soapstoine21</x:t>
   </x:si>
   <x:si>
-    <x:t>gggggg</x:t>
+    <x:t>sup2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sfa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504111fa81327c092eb05e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sup1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6150436f9c128a54be0964d9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T09:54:17.289Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon Aug 30 2021 00:00:00 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9876trfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6150439d9c128a54be0964e7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615043c70b4bacc95a254d44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T09:56:07.196Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615044156960c493d0cdea6c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T09:57:07.593Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Sep 14 2021 00:00:00 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>987u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615044ecdb06a1c3e88e041f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:01:11.493Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fafa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504529db06a1c3e88e042f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504609dd75e6d6b52c5795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:05:45.740Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615046dd0b254de4433c3091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:09:03.380Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue/Sep/14/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615046f50b254de4433c30a0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504898362a107db7986224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:16:29.700Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615049672d5a611b7f94103d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:19:51.008Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed/Sep/01/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>h</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504c1168ed98566b78b4d0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:30:01.752Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue/Aug/31/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504ed6236a73f849baca41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:33:46.234Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504fa9236a73f849baca50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61504fcf236a73f849baca68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue/Sep/07/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>u</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6150500b7664d759a0ee73c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:48:13.068Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615051f1b550b54d139d45e2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:56:23.211Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed/Sep/08/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uyt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhgf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615052180743b82ddc0619a6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T10:57:08.863Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gfx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6150542327313fee50081e9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:05:46.150Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6150543b27313fee50081eae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505490eb07d50da6a6dd81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:07:42.119Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615054cfeb07d50da6a6dd91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09876543456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615054f0eb07d50da6a6dda1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615055a1eb07d50da6a6ddb0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505716eb07d50da6a6ddd1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8888123456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505a91dd2ee49eb38e9a2c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:33:17.329Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505acfdd2ee49eb38e9a3b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505b67ffc4464298f7f37a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:37:01.187Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505ba0bb9806aea52d0dfc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:37:56.481Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kuy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505c54897b35c93fb155ca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:40:24.566Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505c7f5597f4085f8e7158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:41:24.140Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>klo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505d02fe3d86de4fbaeee9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:43:51.632Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505d1efe3d86de4fbaef02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505dc6d078cccacdc2b4ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:47:03.554Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61505e62c67497b3fe805d26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T11:49:40.766Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615060e59351248c59497503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T12:00:11.449Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615062bfc4fa03a84a3801e0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-26T12:07:51.567Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pih</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liuyf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615062f8c4fa03a84a3801ef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lkjhgfdfghj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kjhgfghj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615220da4d8a473df53b7c0f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-27T19:50:05.264Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61530ea919dc877e2cbeb9ae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-28T12:45:18.206Z</x:t>
   </x:si>
   <x:si>
     <x:t>fs</x:t>
   </x:si>
   <x:si>
-    <x:t>6150c384292ecfa44a1f81a2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>615199d82339ea53367c8ca3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61521d1b89ed220d1bd17738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0987654321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61521e4f084729ea3c056456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>klk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61521e8f572d6f3b25777a97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sfa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>615330bc9280b42fbe16b807</x:t>
-  </x:si>
-  <x:si>
-    <x:t>615332abdbb1365b45967985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>615333a58fe92a6e25861ea0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a</x:t>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>61531021a6a7cf0240e40d9b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-28T12:52:17.001Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61532c62d7aba48a5f891003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-28T14:52:31.411Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61532dcdd80ef7529520e88c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-28T14:58:21.110Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon/Aug/30/2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6154b141fe26959a7caa548a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-29T16:38:16.228Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hr341324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6154db0369ba880362203fb5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-09-29T21:18:39.444Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TJvd</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -487,7 +940,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:11">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -509,300 +962,2133 @@
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7">
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:11">
       <x:c r="A6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="n">
-        <x:v>100</x:v>
+      <x:c r="E6" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
+      <x:c r="G6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11">
       <x:c r="A7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="n">
-        <x:v>2</x:v>
+      <x:c r="E7" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11">
       <x:c r="A8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="n">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="n">
-        <x:v>5</x:v>
+      <x:c r="E10" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="n">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:11">
       <x:c r="A11" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="n">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="n">
+        <x:v>800000</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:11">
       <x:c r="A13" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="n">
-        <x:v>1</x:v>
+      <x:c r="E13" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
+      <x:c r="G13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="n">
+        <x:v>801116</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:11">
       <x:c r="A14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="n">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="n">
+      <x:c r="H23" s="0" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="n">
+        <x:v>90000</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="K24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="n">
+        <x:v>90000</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="A26" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="n">
+        <x:v>90000</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="K26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="A27" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="n">
+        <x:v>8989</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:11">
+      <x:c r="A28" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="n">
+        <x:v>8989</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K28" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:11">
+      <x:c r="A29" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="n">
+        <x:v>8989</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J29" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:11">
+      <x:c r="A30" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="n">
+        <x:v>8989</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J30" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K30" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:11">
+      <x:c r="A31" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="n">
+        <x:v>8989</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K31" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:11">
+      <x:c r="A32" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="n">
+        <x:v>8989</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K32" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:11">
+      <x:c r="A33" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:11">
+      <x:c r="A34" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:11">
+      <x:c r="A35" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K35" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:11">
+      <x:c r="A36" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:11">
+      <x:c r="A37" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:11">
+      <x:c r="A38" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="n">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:11">
+      <x:c r="A39" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="n">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="K39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:11">
+      <x:c r="A40" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="K40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:11">
+      <x:c r="A41" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:11">
+      <x:c r="A42" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:11">
+      <x:c r="A43" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="A44" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="A45" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="K45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="A46" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="A47" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="n">
+        <x:v>8888</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:11">
+      <x:c r="A48" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="n">
+        <x:v>1234567</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="K48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:11">
+      <x:c r="A49" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:11">
+      <x:c r="A50" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="K50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:11">
+      <x:c r="A51" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="K51" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:11">
+      <x:c r="A52" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="K52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:11">
+      <x:c r="A53" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:11">
+      <x:c r="A54" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:11">
+      <x:c r="A55" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="K55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:11">
+      <x:c r="A56" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:11">
+      <x:c r="A57" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J57" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="K57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:11">
+      <x:c r="A58" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="J58" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="K58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:11">
+      <x:c r="A59" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="J59" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="K59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:11">
+      <x:c r="A60" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="K60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:11">
+      <x:c r="A61" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="n">
+        <x:v>10000000</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="J61" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="K61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:11">
+      <x:c r="A62" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="n">
+      <x:c r="I62" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:11">
+      <x:c r="A63" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="K63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:11">
+      <x:c r="A64" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:11">
+      <x:c r="A65" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K65" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:11">
+      <x:c r="A66" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="K66" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:11">
+      <x:c r="A67" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:11">
+      <x:c r="A68" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="K68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
